--- a/sample12_data.xlsx
+++ b/sample12_data.xlsx
@@ -451,13 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What happened to First Community Bank -?
-Is Kenyan bank industry stable -?</t>
+          <t>@it_sonia_ First Community Bank!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Enock M Makori(CPAK)</t>
+          <t>Abdirahman silky</t>
         </is>
       </c>
     </row>
